--- a/shares_data/sh_b.xlsx
+++ b/shares_data/sh_b.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\20349\Desktop\workspace\PyShares\shares_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5295D79B-2F71-467F-A876-1E1FD554436F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61DAABDF-A0F8-46F5-B8D7-448C8E296A5B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3225" yWindow="1845" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="140">
   <si>
     <t xml:space="preserve">公司代码 </t>
   </si>
@@ -49,9 +49,6 @@
   </si>
   <si>
     <t xml:space="preserve">  1997-05-06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  </t>
   </si>
   <si>
     <t xml:space="preserve">  大名城</t>
@@ -775,10 +772,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F51"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -786,7 +783,7 @@
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -803,7 +800,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>600054</v>
       </c>
@@ -819,988 +816,838 @@
       <c r="E2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>600094</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" s="1">
         <v>900940</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>600190</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" s="1">
         <v>900952</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>600221</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" s="1">
         <v>900945</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>600272</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6" s="1">
         <v>900943</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>600295</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7" s="1">
         <v>900936</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>600320</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" s="1">
         <v>900947</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>600555</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C9" s="1">
         <v>900955</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>600602</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C10" s="1">
         <v>900901</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>600604</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C11" s="1">
         <v>900902</v>
       </c>
       <c r="D11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>600611</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C12" s="1">
         <v>900903</v>
       </c>
       <c r="D12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>600612</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C13" s="1">
         <v>900905</v>
       </c>
       <c r="D13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>600613</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C14" s="1">
         <v>900904</v>
       </c>
       <c r="D14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>600617</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C15" s="1">
         <v>900913</v>
       </c>
       <c r="D15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>600618</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C16" s="1">
         <v>900908</v>
       </c>
       <c r="D16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>600619</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C17" s="1">
         <v>900910</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>600623</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C18" s="1">
         <v>900909</v>
       </c>
       <c r="D18" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>600639</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C19" s="1">
         <v>900911</v>
       </c>
       <c r="D19" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>600648</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C20" s="1">
         <v>900912</v>
       </c>
       <c r="D20" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>600650</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C21" s="1">
         <v>900914</v>
       </c>
       <c r="D21" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>600663</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C22" s="1">
         <v>900932</v>
       </c>
       <c r="D22" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>600679</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C23" s="1">
         <v>900916</v>
       </c>
       <c r="D23" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>600689</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C24" s="1">
         <v>900922</v>
       </c>
       <c r="D24" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>600695</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C25" s="1">
         <v>900919</v>
       </c>
       <c r="D25" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E25" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>600698</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C26" s="1">
         <v>900946</v>
       </c>
       <c r="D26" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>600726</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C27" s="1">
         <v>900937</v>
       </c>
       <c r="D27" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E27" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="E27" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>600751</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C28" s="1">
         <v>900938</v>
       </c>
       <c r="D28" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>600754</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C29" s="1">
         <v>900934</v>
       </c>
       <c r="D29" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E29" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E29" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>600776</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C30" s="1">
         <v>900941</v>
       </c>
       <c r="D30" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E30" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="E30" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>600801</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C31" s="1">
         <v>900933</v>
       </c>
       <c r="D31" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E31" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>600818</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C32" s="1">
         <v>900915</v>
       </c>
       <c r="D32" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E32" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="E32" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>600819</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C33" s="1">
         <v>900918</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>600822</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C34" s="1">
         <v>900927</v>
       </c>
       <c r="D34" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E34" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="E34" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>600827</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C35" s="1">
         <v>900923</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>600835</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C36" s="1">
         <v>900925</v>
       </c>
       <c r="D36" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E36" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="E36" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>600841</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C37" s="1">
         <v>900920</v>
       </c>
       <c r="D37" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E37" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="E37" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>600843</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C38" s="1">
         <v>900924</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>600844</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C39" s="1">
         <v>900921</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>600845</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C40" s="1">
         <v>900926</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>600848</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C41" s="1">
         <v>900928</v>
       </c>
       <c r="D41" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E41" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="E41" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>600851</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C42" s="1">
         <v>900917</v>
       </c>
       <c r="D42" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E42" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="E42" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>900929</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C43" s="1">
         <v>900929</v>
       </c>
       <c r="D43" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E43" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="E43" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>900935</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C44" s="1">
         <v>900935</v>
       </c>
       <c r="D44" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E44" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E44" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>900939</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C45" s="1">
         <v>900939</v>
       </c>
       <c r="D45" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E45" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="E45" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>900948</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C46" s="1">
         <v>900948</v>
       </c>
       <c r="D46" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E46" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="E46" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>900950</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C47" s="1">
         <v>900950</v>
       </c>
       <c r="D47" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E47" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="E47" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>900951</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C48" s="1">
         <v>900951</v>
       </c>
       <c r="D48" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E48" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="E48" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>900953</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C49" s="1">
         <v>900953</v>
       </c>
       <c r="D49" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E49" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="E49" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>900956</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C50" s="1">
         <v>900956</v>
       </c>
       <c r="D50" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E50" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="E50" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>900957</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C51" s="1">
         <v>900957</v>
       </c>
       <c r="D51" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E51" s="1" t="s">
         <v>139</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
